--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2594862.840991588</v>
+        <v>2587845.826099877</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9471856.057926977</v>
+        <v>9471856.057926981</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>297.0625189647025</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>115.2889731870059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.931378435075</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>384.5165469009011</v>
+        <v>245.1595743446626</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>55.90301252244943</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>355.5467565582651</v>
+        <v>28.71125398700465</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.36034119630713</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560553</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>234.5175081001671</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.15066848648085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274141</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385027</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174114</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>18.60826027245581</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634793</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.0556349746125</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,10 +2061,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>137.8806403687253</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229345</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>53.18663863928347</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.289814786355</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>118.4898845065085</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>91.65069071157548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>152.6276470398217</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>134.5037389394475</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>94.16481274941356</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>1843.218611560566</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1484.952912953815</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1099.164660355571</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036446</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
@@ -4345,7 +4345,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2349.489405593183</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2349.489405593183</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V2" t="n">
-        <v>2349.489405593183</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W2" t="n">
-        <v>1996.720750323069</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X2" t="n">
-        <v>1996.720750323069</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y2" t="n">
-        <v>1996.720750323069</v>
+        <v>2212.181128500978</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036446</v>
@@ -4497,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1825.581288436856</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.737983561872</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D5" t="n">
-        <v>1315.737983561872</v>
+        <v>1098.353072889694</v>
       </c>
       <c r="E5" t="n">
-        <v>929.9497309636281</v>
+        <v>712.5648202914495</v>
       </c>
       <c r="F5" t="n">
-        <v>923.0042302144246</v>
+        <v>301.5789155018419</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>2212.181128500978</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>110.4106712369801</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>110.4106712369801</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.08349269302</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.120975752608</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D8" t="n">
-        <v>1209.855277145858</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E8" t="n">
-        <v>824.0670245476135</v>
+        <v>493.9301532635121</v>
       </c>
       <c r="F8" t="n">
-        <v>413.081119758006</v>
+        <v>82.94424847390451</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018221</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018221</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.683332757142</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.8183646524923</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>382.8183646524923</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524923</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524923</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>712.6134880485481</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>564.466829482732</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>564.466829482732</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>564.466829482732</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>564.466829482732</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>564.466829482732</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>564.466829482732</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>564.466829482732</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>564.466829482732</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.438140992646</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688089</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.497233179938</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471208</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262962</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262962</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.210845262962</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W13" t="n">
-        <v>991.2202710341935</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X13" t="n">
-        <v>763.2307201361762</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.438140992646</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5266,22 +5266,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701559</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619865</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.623401105981</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>990.7828679390639</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,43 +5503,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>498.9056400965603</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>745.6707680030242</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>675.007103038344</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>447.0175521403266</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.0175521403266</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>645.3330128981322</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883087</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5983,7 +5983,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>617.1460235486118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>467.029384136276</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>319.1162905538829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>319.1162905538829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>150.9409688737035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6183,16 +6183,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>786.0822064765186</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324574</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>199.5300356889273</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,16 +6530,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.599783924192</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688035</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T31" t="n">
-        <v>1206.419805209237</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U31" t="n">
-        <v>1206.419805209237</v>
+        <v>1209.787631771457</v>
       </c>
       <c r="V31" t="n">
-        <v>951.73531700335</v>
+        <v>955.1031435655701</v>
       </c>
       <c r="W31" t="n">
-        <v>662.3181469663895</v>
+        <v>665.6859735286096</v>
       </c>
       <c r="X31" t="n">
-        <v>434.3285960683721</v>
+        <v>437.6964226305922</v>
       </c>
       <c r="Y31" t="n">
-        <v>434.3285960683721</v>
+        <v>216.9038434870621</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6706,28 +6706,28 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>266.1532743881928</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3893.047489476503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4182.464659513464</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3893.047489476503</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3893.047489476503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3893.047489476503</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7368,10 +7368,10 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4036.945405494735</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>3782.260917288848</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>3782.260917288848</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>3554.271366390831</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4744.160657054477</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4520.375241843984</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4231.246603057542</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>3976.562114851655</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>3687.144944814694</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415606</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814819</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>87.16935584025495</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>43.65987261462578</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>51.71984429841021</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.3723298501101</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>207.1013951165814</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7763452073247663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>8.553322277843904</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>95.72718972825265</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.5421653955823</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542878</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>129.8968703468138</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.8953512967693</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>32.74308215918037</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4198406026812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277349</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="I2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="N2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="K2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196775</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.374979634179943e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007569</v>
+        <v>7916.73165600738</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600757</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007551</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.73165600744</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007493</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.7228422702</v>
+        <v>-225488.7228422704</v>
       </c>
       <c r="C6" t="n">
         <v>364479.1563722746</v>
       </c>
       <c r="D6" t="n">
-        <v>364479.1563722746</v>
+        <v>364479.1563722745</v>
       </c>
       <c r="E6" t="n">
-        <v>-58071.95746194267</v>
+        <v>-59046.54872166344</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.0790149539</v>
+        <v>466113.4877552324</v>
       </c>
       <c r="G6" t="n">
-        <v>467088.0790149539</v>
+        <v>466113.4877552321</v>
       </c>
       <c r="H6" t="n">
-        <v>467088.079014954</v>
+        <v>466113.4877552318</v>
       </c>
       <c r="I6" t="n">
-        <v>467088.0790149537</v>
+        <v>466113.4877552321</v>
       </c>
       <c r="J6" t="n">
-        <v>290664.8598223608</v>
+        <v>289690.2685626394</v>
       </c>
       <c r="K6" t="n">
-        <v>467088.0790149542</v>
+        <v>466113.4877552319</v>
       </c>
       <c r="L6" t="n">
-        <v>467088.0790149537</v>
+        <v>466113.4877552323</v>
       </c>
       <c r="M6" t="n">
-        <v>332287.0637811166</v>
+        <v>331312.4725213952</v>
       </c>
       <c r="N6" t="n">
-        <v>467088.0790149538</v>
+        <v>466113.4877552318</v>
       </c>
       <c r="O6" t="n">
-        <v>467088.0790149537</v>
+        <v>466113.4877552321</v>
       </c>
       <c r="P6" t="n">
-        <v>467088.0790149537</v>
+        <v>466113.4877552318</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.468724542724929e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.468724542724929e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.468724542724929e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>109.813526777009</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>101.1593471706519</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74592769735753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>112.3504958069027</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>29.26762311989387</v>
+        <v>168.6245956761323</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.53095012411974</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27824,13 +27824,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>58.2374134625299</v>
+        <v>385.0729160337903</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>136.7057146380966</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.7624087586072</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28101,16 +28101,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.886661112565614e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28386,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.648867504857547e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.319465609569683e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28581,10 +28581,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28970,7 +28970,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.916793283325208e-12</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29037,13 +29037,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.282109360377526e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775188</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299124</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341723</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714617</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>237.7447944281941</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>354.0842496650919</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556177</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2587845.826099877</v>
+        <v>2592785.088948908</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>297.0625189647025</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>32.94454038126188</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,10 +718,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="U4" t="n">
-        <v>173.931378435075</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>245.1595743446626</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>104.3004803731276</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>55.90301252244943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>28.71125398700465</v>
+        <v>126.9458036167327</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>30.60408762095435</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560553</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>70.43533402631068</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>234.5175081001671</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385027</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>50.13491291997161</v>
       </c>
       <c r="X16" t="n">
-        <v>18.60826027245581</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>137.8806403687253</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229345</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>36.74571320013103</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>37.45229984896395</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.4898845065085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>110.215339532346</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>37.77589834984327</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2212.181128500978</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C2" t="n">
-        <v>1843.218611560566</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D2" t="n">
-        <v>1484.952912953815</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>1099.164660355571</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2663.871777501796</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2487.694289815966</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2487.694289815966</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500978</v>
+        <v>2233.932504454058</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500978</v>
+        <v>1902.869617110487</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500978</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500978</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="Y2" t="n">
-        <v>2212.181128500978</v>
+        <v>1550.100961840373</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U4" t="n">
-        <v>552.4407231609042</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V4" t="n">
-        <v>552.4407231609042</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W4" t="n">
-        <v>552.4407231609042</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X4" t="n">
-        <v>552.4407231609042</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y4" t="n">
-        <v>552.4407231609042</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1825.581288436856</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1456.618771496444</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1098.353072889694</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>712.5648202914495</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>301.5789155018419</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2591.795070439306</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500978</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>2212.181128500978</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>2212.181128500978</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.346854164887</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>110.4106712369801</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>110.4106712369801</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.946621408918</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.984104468507</v>
+        <v>593.1569710713181</v>
       </c>
       <c r="D8" t="n">
-        <v>879.7184058617563</v>
+        <v>593.1569710713181</v>
       </c>
       <c r="E8" t="n">
-        <v>493.9301532635121</v>
+        <v>593.1569710713181</v>
       </c>
       <c r="F8" t="n">
-        <v>82.94424847390451</v>
+        <v>182.1710662817106</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y8" t="n">
-        <v>1993.54646147304</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321495</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198137</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374206</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951026</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5026,16 +5026,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,22 +5044,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5126,13 +5126,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5223,25 +5223,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1427.769468511124</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1227.849458426676</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1004.064043216182</v>
       </c>
       <c r="U13" t="n">
-        <v>1038.244483529058</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="V13" t="n">
-        <v>783.5599953231707</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W13" t="n">
-        <v>494.1428252862101</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X13" t="n">
-        <v>266.1532743881928</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y13" t="n">
         <v>266.1532743881928</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,49 +5263,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>990.7828679390639</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C16" t="n">
-        <v>821.846685011157</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.579090436494</v>
+        <v>1193.590456170226</v>
       </c>
       <c r="X16" t="n">
-        <v>990.7828679390639</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.7828679390639</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,31 +5515,31 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231263</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5755,10 +5755,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>645.3330128981322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,46 +5968,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630133</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>134.3339734806202</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>134.3339734806202</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>972.0370157789685</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>972.0370157789685</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6472,10 +6472,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,13 +6487,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,16 +6530,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.599783924192</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688035</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471155</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655701</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286096</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305922</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870621</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6897,13 +6897,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7128,16 +7128,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7162,25 +7162,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1276.512541329479</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1276.512541329479</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1276.512541329479</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>987.0953712925186</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>759.1058203945013</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>538.3132412509711</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>472.4860691490219</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>303.549886221115</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>303.549886221115</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>303.549886221115</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>303.549886221115</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>135.3745645409356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>135.3745645409356</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>654.1345339792616</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>39.52901837748212</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>51.71984429841021</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>236.3880854166194</v>
       </c>
       <c r="X16" t="n">
-        <v>207.1013951165814</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>8.553322277843904</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>129.7478552632465</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>214.6853434748641</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.34209567542878</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24894,10 +24894,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>111.3322215260433</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>72.64334711442874</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>808738.510427735</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="I2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196775</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="M2" t="n">
-        <v>566992.1366196781</v>
-      </c>
       <c r="N2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>4.374979634179943e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.73165600738</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007546</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600744</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225488.7228422704</v>
+        <v>-225488.7228422702</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722746</v>
+        <v>364479.1563722744</v>
       </c>
       <c r="D6" t="n">
         <v>364479.1563722745</v>
       </c>
       <c r="E6" t="n">
-        <v>-59046.54872166344</v>
+        <v>-58169.41658791453</v>
       </c>
       <c r="F6" t="n">
-        <v>466113.4877552324</v>
+        <v>466990.6198889821</v>
       </c>
       <c r="G6" t="n">
-        <v>466113.4877552321</v>
+        <v>466990.6198889816</v>
       </c>
       <c r="H6" t="n">
-        <v>466113.4877552318</v>
+        <v>466990.6198889817</v>
       </c>
       <c r="I6" t="n">
-        <v>466113.4877552321</v>
+        <v>466990.6198889819</v>
       </c>
       <c r="J6" t="n">
-        <v>289690.2685626394</v>
+        <v>290567.400696389</v>
       </c>
       <c r="K6" t="n">
-        <v>466113.4877552319</v>
+        <v>466990.6198889817</v>
       </c>
       <c r="L6" t="n">
-        <v>466113.4877552323</v>
+        <v>466990.6198889813</v>
       </c>
       <c r="M6" t="n">
-        <v>331312.4725213952</v>
+        <v>332189.6046551447</v>
       </c>
       <c r="N6" t="n">
-        <v>466113.4877552318</v>
+        <v>466990.6198889815</v>
       </c>
       <c r="O6" t="n">
-        <v>466113.4877552321</v>
+        <v>466990.6198889815</v>
       </c>
       <c r="P6" t="n">
-        <v>466113.4877552318</v>
+        <v>466990.6198889817</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.468724542724929e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.468724542724929e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.468724542724929e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>109.813526777009</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>21.53386219354983</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>123.2544177285352</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3504958069027</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>168.6245956761323</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>112.1478399845302</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>90.53095012411974</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>18.87430523564663</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>385.0729160337903</v>
+        <v>286.8383664040623</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>136.7057146380966</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28970,7 +28970,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.916793283325208e-12</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556177</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
